--- a/Plotting/result_data_long_LowAmbition.xlsx
+++ b/Plotting/result_data_long_LowAmbition.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,17 +549,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\LowAmbition\20250813085325_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\LowAmbition\20250903113051_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\LowAmbition\20250813094849_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\LowAmbition\20250903124033_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\LowAmbition\20250813121135_2050_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\LowAmbition\20250903155548_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\LowAmbition\Results_model_linking_20250907_05_27\Iteration_1\20250907090852_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\LowAmbition\Results_model_linking_20250907_05_27\Iteration_1\20250907095857_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\LowAmbition\Results_model_linking_20250907_05_27\Iteration_1\20250907110653_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\LowAmbition\Results_model_linking_20250907_05_27\Iteration_2\20250907150444_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\LowAmbition\Results_model_linking_20250907_05_27\Iteration_2\20250907155041_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\LowAmbition\Results_model_linking_20250907_05_27\Iteration_2\20250907165307_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
     </row>
@@ -526,13 +600,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2066758417.152505</v>
+        <v>2067125104.568945</v>
       </c>
       <c r="C5" t="n">
-        <v>1890219954.704649</v>
+        <v>1889465138.685463</v>
       </c>
       <c r="D5" t="n">
-        <v>1009638007.544869</v>
+        <v>1012908906.929864</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2691585006.760958</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1609617107.365047</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1051046531.092047</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2697683164.420156</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1604686996.576777</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1051913105.41045</v>
       </c>
     </row>
     <row r="6">
@@ -543,10 +635,24 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6409174.543860463</v>
+        <v>6395527.150114073</v>
       </c>
       <c r="D6" t="n">
-        <v>396613578.1002223</v>
+        <v>396188675.3677515</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>404047658.3859068</v>
+      </c>
+      <c r="G6" t="n">
+        <v>493594145.4871573</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>404047658.3749291</v>
+      </c>
+      <c r="J6" t="n">
+        <v>490957243.8495642</v>
       </c>
     </row>
     <row r="7">
@@ -556,13 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2066758417.152505</v>
+        <v>2067125104.568945</v>
       </c>
       <c r="C7" t="n">
-        <v>1896629129.248509</v>
+        <v>1895860665.835577</v>
       </c>
       <c r="D7" t="n">
-        <v>1406251585.645091</v>
+        <v>1409097582.297616</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2691585006.760958</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2013664765.750954</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1544640676.579204</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2697683164.420156</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2008734654.951706</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1542870349.260014</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +698,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>53632299575.02246</v>
+        <v>53656878255.52024</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>58458427907.05209</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>58452405102.56947</v>
       </c>
     </row>
     <row r="9">
@@ -584,131 +718,275 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2018731.329516303</v>
+        <v>2010907.150843292</v>
       </c>
       <c r="C9" t="n">
-        <v>126564.9980888767</v>
+        <v>126659.7547486954</v>
       </c>
       <c r="D9" t="n">
-        <v>78959.58831882122</v>
+        <v>80970.60823717949</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1065926.393684468</v>
+      </c>
+      <c r="F9" t="n">
+        <v>77557.83691849151</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36098.32453859237</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1075791.704510676</v>
+      </c>
+      <c r="I9" t="n">
+        <v>80166.12979556307</v>
+      </c>
+      <c r="J9" t="n">
+        <v>37762.82149309024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>size_AEC</t>
+          <t>CAPEX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6395527.150114073</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>389793148.2176375</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>8671074.289434575</v>
+      </c>
+      <c r="E10" t="n">
+        <v>404047658.3859068</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89546487.1012505</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2506589.476088839</v>
+      </c>
+      <c r="H10" t="n">
+        <v>404047658.3749291</v>
+      </c>
+      <c r="I10" t="n">
+        <v>86909585.47463514</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01209461247518446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>size_ASU</t>
+          <t>OPEX_fix</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>204169029.6319061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1058915878951111</v>
+        <v>266068347.0650936</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222642991.4889718</v>
+      </c>
+      <c r="E11" t="n">
+        <v>276718309.6226121</v>
+      </c>
+      <c r="F11" t="n">
+        <v>219333178.4894906</v>
+      </c>
+      <c r="G11" t="n">
+        <v>207590609.7247264</v>
+      </c>
+      <c r="H11" t="n">
+        <v>276718309.6224749</v>
+      </c>
+      <c r="I11" t="n">
+        <v>218630086.9148192</v>
+      </c>
+      <c r="J11" t="n">
+        <v>205736517.8908191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol</t>
+          <t>OPEX_var</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1550701570.143692</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1214338694.705456</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>769279211.6385828</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1848691634.273031</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1288940894.779003</v>
+      </c>
+      <c r="G12" t="n">
+        <v>835458776.7289118</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1853289278.166675</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1286954055.845417</v>
+      </c>
+      <c r="J12" t="n">
+        <v>840432862.3584371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_CC</t>
+          <t>OPEX_emis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>305858977.6432321</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19264948.69727628</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>12315629.5128746</v>
+      </c>
+      <c r="E13" t="n">
+        <v>162127404.4794086</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11796546.99530255</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5490555.1623199</v>
+      </c>
+      <c r="H13" t="n">
+        <v>163627918.2560768</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12193268.34190515</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5743725.149099028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El</t>
+          <t>size_AEC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232.2168691920029</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>292.2668317093459</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG</t>
+          <t>size_ASU</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>249.8855440218292</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>139.9689223613362</v>
+        <v>0.1056571596409326</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32.00868314699161</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31.51539294185948</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer</t>
+          <t>size_Biomass2methanol</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.4004</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>size_CO2toEmission</t>
+          <t>size_Biomass2methanol_CC</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -718,129 +996,269 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace</t>
+          <t>size_Boiler_El</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>232.5704323232323</v>
+      </c>
+      <c r="C18" t="n">
+        <v>291.8913482080643</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>628.7238300898948</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>628.7238300921241</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_CC</t>
+          <t>size_Boiler_Industrial_NG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+        <v>248.22756</v>
+      </c>
+      <c r="C19" t="n">
+        <v>144.1994313120208</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>676.5329554230281</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>676.5329554223388</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_Electric</t>
+          <t>size_CO2_mixer</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>64.4004</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing</t>
+          <t>size_CO2toEmission</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing_CC</t>
+          <t>size_CrackerFurnace</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>size_EDH</t>
+          <t>size_CrackerFurnace_CC</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m</t>
+          <t>size_CrackerFurnace_Electric</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2398.21837718063</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer</t>
+          <t>size_CrackerFurnace_existing</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C25" t="n">
-        <v>3.04723993946157</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch</t>
+          <t>size_CrackerFurnace_existing_CC</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -849,336 +1267,682 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch_existing</t>
+          <t>size_EDH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1248</v>
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol</t>
+          <t>size_ElectricSMR_m</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2398.00830439036</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4012.320629269281</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4012.320629265319</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol_CC</t>
+          <t>size_HBfeed_mixer</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.04049380244204</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>921.1131840860896</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>906.9177824995534</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>size_MTO</t>
+          <t>size_HaberBosch</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>369.0882064664761</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis</t>
+          <t>size_HaberBosch_existing</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="C31" t="n">
-        <v>448.4668365327778</v>
+        <v>1248</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1248</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation</t>
+          <t>size_MPW2methanol</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation_existing</t>
+          <t>size_MPW2methanol_CC</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>size_PDH</t>
+          <t>size_MTO</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>369.0558760539822</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>617.5001571651119</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>617.5001571642975</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer</t>
+          <t>size_MeOHsynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.1461187214612</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.058131919506457</v>
+        <v>448.4275529209974</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04865802176654225</v>
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>750.3039576734022</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>750.3039576726834</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>size_RWGS</t>
+          <t>size_OlefinSeparation</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer</t>
+          <t>size_OlefinSeparation_existing</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_CC</t>
+          <t>size_PDH</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing</t>
+          <t>size_PE_mixer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1068</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C39" t="n">
-        <v>1068</v>
+        <v>6.054128275141293</v>
       </c>
       <c r="D39" t="n">
-        <v>1068</v>
+        <v>0.1163839023097688</v>
+      </c>
+      <c r="E39" t="n">
+        <v>123.6218069560984</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.244335202231336</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>123.508632728054</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.933245327369641</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1291072812603055</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing_CC</t>
+          <t>size_RWGS</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8962220893074128</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Battery</t>
+          <t>size_SteamReformer</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2</t>
+          <t>size_SteamReformer_CC</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.04758559553083</v>
-      </c>
-      <c r="C42" t="n">
-        <v>35029.10176868</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1936.082176142198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2</t>
+          <t>size_SteamReformer_existing</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>size_WGS_m</t>
+          <t>size_SteamReformer_existing_CC</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.896332150162597</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3052262785907579</v>
-      </c>
+        <v>0.9000000000000002</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer</t>
+          <t>size_Storage_Battery</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1307.077031973137</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2442.195811590659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>size_naphtha_mixer</t>
+          <t>size_Storage_CO2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>33888.41137721491</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2740.040116460392</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1451.298418758104</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3729.236732011574</v>
+      </c>
+      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer</t>
+          <t>size_Storage_H2</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>448.4668365327778</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.675369009124017e-10</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>CO2/import_max</t>
+          <t>size_WGS_m</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1188,29 +1952,65 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>0.6122621430976073</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>185.4839275243623</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.159533518728575e-10</v>
+      </c>
+      <c r="I48" t="n">
+        <v>182.6254092829967</v>
+      </c>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CO2/export_max</t>
+          <t>size_feedgas_mixer</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102.8550747400343</v>
+        <v>1316.22756</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2542.207735702381</v>
       </c>
       <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5756.853584693607</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5756.853584687658</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/import_max</t>
+          <t>size_naphtha_mixer</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1220,29 +2020,65 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/export_max</t>
+          <t>size_syngas_mixer</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>448.4275529209974</v>
       </c>
       <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>750.3039576733556</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>750.3039576729495</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/import_max</t>
+          <t>CO2/import_max</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1252,29 +2088,65 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/export_max</t>
+          <t>CO2/export_max</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>71.47200000000457</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>71.47200000059345</v>
+      </c>
+      <c r="F53" t="n">
+        <v>106.7661899436962</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>71.4720002164818</v>
+      </c>
+      <c r="I53" t="n">
+        <v>49.55562862510408</v>
+      </c>
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/import_max</t>
+          <t>CO2_DAC/import_max</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1284,13 +2156,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/export_max</t>
+          <t>CO2_DAC/export_max</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1300,13 +2190,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>MPW/import_max</t>
+          <t>CO2captured/import_max</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1316,13 +2224,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>MPW/export_max</t>
+          <t>CO2captured/export_max</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1332,13 +2258,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/import_max</t>
+          <t>HBfeed/import_max</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1348,29 +2292,65 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/export_max</t>
+          <t>HBfeed/export_max</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>122.1461187214612</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>128.2042506409676</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>128.2529086627342</v>
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ammonia/import_max</t>
+          <t>MPW/import_max</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1380,29 +2360,65 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ammonia/export_max</t>
+          <t>MPW/export_max</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>135.1598173515986</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>137.0536003098324</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>137.053600309824</v>
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>biomass/import_max</t>
+          <t>PE_olefin/import_max</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1412,29 +2428,65 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>biomass/export_max</t>
+          <t>PE_olefin/export_max</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>128.2002469966025</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>128.3166308989123</v>
+      </c>
+      <c r="E63" t="n">
+        <v>123.6218069560984</v>
+      </c>
+      <c r="F63" t="n">
+        <v>127.8661421583298</v>
+      </c>
+      <c r="G63" t="n">
+        <v>127.8661421583447</v>
+      </c>
+      <c r="H63" t="n">
+        <v>123.508632728054</v>
+      </c>
+      <c r="I63" t="n">
+        <v>127.4418780554469</v>
+      </c>
+      <c r="J63" t="n">
+        <v>127.5709853366839</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>crackergas/import_max</t>
+          <t>ammonia/import_max</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1444,45 +2496,99 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>crackergas/export_max</t>
+          <t>ammonia/export_max</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>136.5416640000023</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>137.0524669588683</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>137.0524669588513</v>
+      </c>
+      <c r="E65" t="n">
+        <v>136.5416640003214</v>
+      </c>
+      <c r="F65" t="n">
+        <v>154.7470149264631</v>
+      </c>
+      <c r="G65" t="n">
+        <v>154.7470149264631</v>
+      </c>
+      <c r="H65" t="n">
+        <v>136.5416640011849</v>
+      </c>
+      <c r="I65" t="n">
+        <v>152.362187459925</v>
+      </c>
+      <c r="J65" t="n">
+        <v>152.3621874599253</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>electricity/import_max</t>
+          <t>biomass/import_max</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>332.4660824750387</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>3184.416351120366</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>3212.371335831986</v>
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>electricity/export_max</t>
+          <t>biomass/export_max</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1492,13 +2598,31 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ethanol/import_max</t>
+          <t>crackergas/import_max</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1508,13 +2632,31 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ethanol/export_max</t>
+          <t>crackergas/export_max</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1524,45 +2666,99 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>ethylene/import_max</t>
+          <t>electricity/import_max</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>331.8853203232327</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3178.978569439352</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>3178.978569439329</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3067.322420412919</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3096.158566930568</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1900.000000055451</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3033.884381935132</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3034.692867581616</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>ethylene/export_max</t>
+          <t>electricity/export_max</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>73.893835616442</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>89.40607284506325</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>89.35741482329669</v>
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>feedgas/import_max</t>
+          <t>ethanol/import_max</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1572,13 +2768,31 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>feedgas/export_max</t>
+          <t>ethanol/export_max</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1588,13 +2802,31 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/import_max</t>
+          <t>ethylene/import_max</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1604,45 +2836,99 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/export_max</t>
+          <t>ethylene/export_max</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>75.75268127853928</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>89.18572609534655</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>89.06934219303602</v>
+      </c>
+      <c r="E75" t="n">
+        <v>78.91824459420788</v>
+      </c>
+      <c r="F75" t="n">
+        <v>113.0374940389406</v>
+      </c>
+      <c r="G75" t="n">
+        <v>123.3332804807715</v>
+      </c>
+      <c r="H75" t="n">
+        <v>79.03141887636799</v>
+      </c>
+      <c r="I75" t="n">
+        <v>111.7348503675771</v>
+      </c>
+      <c r="J75" t="n">
+        <v>111.6057430862973</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>methane/import_max</t>
+          <t>feedgas/import_max</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>958.1545061347161</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>3749.272843563796</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>3466.595969955733</v>
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>methane/export_max</t>
+          <t>feedgas/export_max</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1652,13 +2938,31 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/import_max</t>
+          <t>hydrogen/import_max</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1668,13 +2972,31 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/export_max</t>
+          <t>hydrogen/export_max</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1684,29 +3006,65 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>methanol/import_max</t>
+          <t>methane/import_max</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>981.6081100000009</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>3858.435295702381</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>3466.008304390369</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5756.853584693784</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4012.320629269281</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4012.320629269321</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5756.853584693136</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4012.320629265319</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4012.320629265331</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>methanol/export_max</t>
+          <t>methane/export_max</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1716,29 +3074,65 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>naphtha/import_max</t>
+          <t>methane_bio/import_max</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>446.7637974883766</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>naphtha/export_max</t>
+          <t>methane_bio/export_max</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1748,13 +3142,31 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/import_max</t>
+          <t>methanol/import_max</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1764,13 +3176,31 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/export_max</t>
+          <t>methanol/export_max</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1780,45 +3210,99 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/import_max</t>
+          <t>naphtha/import_max</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/export_max</t>
+          <t>naphtha/export_max</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3388530812665331</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3388530812644481</v>
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>olefins/import_max</t>
+          <t>naphtha_bio/import_max</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1828,13 +3312,31 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>olefins/export_max</t>
+          <t>naphtha_bio/export_max</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1844,13 +3346,31 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>propane/import_max</t>
+          <t>nitrogen/import_max</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1860,29 +3380,65 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>propane/export_max</t>
+          <t>nitrogen/export_max</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.3381029108697893</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>0.3381029108539688</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.08745348240673</v>
+      </c>
+      <c r="G91" t="n">
+        <v>9.087453482406758</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5.590500156016091e-10</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.482085646512417</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9.482085646512459</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>propylene/import_max</t>
+          <t>olefins/import_max</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1892,13 +3448,31 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>propylene/export_max</t>
+          <t>olefins/export_max</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1908,13 +3482,31 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>steam/import_max</t>
+          <t>propane/import_max</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1924,13 +3516,31 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>steam/export_max</t>
+          <t>propane/export_max</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1940,13 +3550,31 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>syngas/import_max</t>
+          <t>propylene/import_max</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1956,13 +3584,31 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>syngas/export_max</t>
+          <t>propylene/export_max</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1972,13 +3618,31 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/import_max</t>
+          <t>steam/import_max</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1988,13 +3652,31 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/export_max</t>
+          <t>steam/export_max</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2004,206 +3686,588 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>syngas/import_max</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
       <c r="C100" t="n">
-        <v>232.2168691920029</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>524.4837009013488</v>
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>syngas/export_max</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
       <c r="C101" t="n">
-        <v>249.8855440218292</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>389.8544663831653</v>
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>syngas_r/import_max</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
       <c r="C102" t="n">
-        <v>160.381049443566</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>size_DirectMeOHsynthesis</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>syngas_r/export_max</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer_existing</t>
+          <t>size_Boiler_El_existing</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>122.1461187214612</v>
+        <v>232.5704323232323</v>
       </c>
       <c r="D104" t="n">
-        <v>128.2042506409676</v>
+        <v>524.4617805312967</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>628.7238300898948</v>
+      </c>
+      <c r="G104" t="n">
+        <v>628.7238300898948</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>628.7238300921241</v>
+      </c>
+      <c r="J104" t="n">
+        <v>628.7238300921241</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2_existing</t>
+          <t>size_Boiler_Industrial_NG_existing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>33.04758559553083</v>
+        <v>248.22756</v>
       </c>
       <c r="D105" t="n">
-        <v>35062.14935427553</v>
+        <v>392.4269913120207</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>676.5329554230281</v>
+      </c>
+      <c r="G105" t="n">
+        <v>676.5329554230281</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>676.5329554223388</v>
+      </c>
+      <c r="J105" t="n">
+        <v>676.5329554223388</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>1307.077031973137</v>
+        <v>160.0259896116946</v>
       </c>
       <c r="D106" t="n">
-        <v>3749.272843563796</v>
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>108.6165055439348</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>105.7528010414205</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>size_ASU_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
       <c r="D107" t="n">
-        <v>0.1058915878951111</v>
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer_existing</t>
+          <t>size_PE_mixer_existing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>122.1461187214612</v>
+      </c>
       <c r="D108" t="n">
-        <v>64.4004</v>
+        <v>128.2002469966025</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>123.6218069560984</v>
+      </c>
+      <c r="G108" t="n">
+        <v>127.8661421583298</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>123.508632728054</v>
+      </c>
+      <c r="J108" t="n">
+        <v>127.4418780554236</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis_existing</t>
+          <t>size_feedgas_mixer_existing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>1316.22756</v>
+      </c>
       <c r="D109" t="n">
-        <v>160.381049443566</v>
+        <v>3858.435295702381</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>5756.853584693607</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5756.853584693607</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>5756.853584687658</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5756.853584687658</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m_existing</t>
+          <t>size_ASU_existing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>2398.21837718063</v>
+        <v>0.1056571596409326</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>32.00868314699161</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>31.51539294185948</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer_existing</t>
+          <t>size_CO2_mixer_existing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>3.04723993946157</v>
-      </c>
+        <v>64.4004</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>size_MTO_existing</t>
+          <t>size_CO2electrolysis_existing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>369.0882064664761</v>
+        <v>160.0259896116946</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>108.6165055439348</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>105.7528010414205</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis_existing</t>
+          <t>size_ElectricSMR_m_existing</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>448.4668365327778</v>
+        <v>2398.00830439036</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>4012.320629269281</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4012.320629269281</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>4012.320629265319</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4012.320629265319</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer_existing</t>
+          <t>size_HBfeed_mixer_existing</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>448.4668365327778</v>
+        <v>3.04049380244204</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>921.1131840860896</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>906.9177824995534</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>size_MTO_existing</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="n">
+        <v>369.0558760539822</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>617.5001571651119</v>
+      </c>
+      <c r="G115" t="n">
+        <v>617.5001571651119</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>617.5001571642975</v>
+      </c>
+      <c r="J115" t="n">
+        <v>617.5001571642975</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>size_MeOHsynthesis_existing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>448.4275529209974</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>750.3039576734022</v>
+      </c>
+      <c r="G116" t="n">
+        <v>750.3039576734022</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>750.3039576726834</v>
+      </c>
+      <c r="J116" t="n">
+        <v>750.3039576726834</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_CO2_existing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>33888.41137721491</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>2740.040116460392</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3729.236732011574</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>size_syngas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>448.4275529209974</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>750.3039576733556</v>
+      </c>
+      <c r="G118" t="n">
+        <v>750.3039576733556</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>750.3039576729495</v>
+      </c>
+      <c r="J118" t="n">
+        <v>750.3039576729495</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>size_WGS_m_existing</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>185.4839275243623</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>4.159533518728575e-10</v>
+      </c>
+      <c r="J119" t="n">
+        <v>182.6254092834127</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>9.675369009124017e-10</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9.675369009124017e-10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
